--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지2.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C883FB97-ABA2-4EC0-8FD7-64E67847DE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24467F2-B143-4CD7-9E1A-F38A5EA49EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-789" yWindow="1500" windowWidth="18566" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4396,7 +4396,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4703,8 +4703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4748,7 +4748,6 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4767,7 +4766,6 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">IF(ISBLANK(F3),D3,F3)</f>
         <v>0</v>
       </c>
     </row>
@@ -4786,7 +4784,6 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4805,7 +4802,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4824,7 +4820,6 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4843,7 +4838,6 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7">
@@ -4865,7 +4859,6 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4884,7 +4877,6 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4903,7 +4895,6 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4922,7 +4913,6 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4941,7 +4931,6 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4960,7 +4949,6 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4979,7 +4967,6 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14">
@@ -5001,7 +4988,6 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5020,7 +5006,6 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5039,7 +5024,6 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5058,7 +5042,6 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5077,7 +5060,6 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5096,7 +5078,6 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5115,7 +5096,6 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5134,7 +5114,6 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5153,7 +5132,6 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5172,7 +5150,6 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5191,7 +5168,6 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5210,7 +5186,6 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5229,7 +5204,6 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5248,7 +5222,6 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5267,7 +5240,6 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5286,7 +5258,6 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5305,7 +5276,6 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5324,7 +5294,6 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5343,7 +5312,6 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5362,7 +5330,6 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5381,7 +5348,6 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5400,7 +5366,6 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5419,7 +5384,6 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5438,7 +5402,6 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5457,7 +5420,6 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5476,7 +5438,6 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5495,7 +5456,6 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5514,7 +5474,6 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5533,7 +5492,6 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F43">
@@ -5555,7 +5513,6 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5574,7 +5531,6 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F45">
@@ -5596,7 +5552,6 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F46">
@@ -5618,7 +5573,6 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5637,7 +5591,6 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5656,7 +5609,6 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5675,7 +5627,6 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5694,7 +5645,6 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F51">
@@ -5716,7 +5666,6 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5735,7 +5684,6 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5754,7 +5702,6 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5773,7 +5720,6 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5792,7 +5738,6 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5811,7 +5756,6 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5830,7 +5774,6 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5849,7 +5792,6 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5868,7 +5810,6 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5887,7 +5828,6 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5906,7 +5846,6 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5925,7 +5864,6 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5944,7 +5882,6 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5963,7 +5900,6 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F65">
@@ -5981,11 +5917,10 @@
         <v>1.993678510189056E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D129" si="2">IF(C66&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D66:D129" si="1">IF(C66&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6000,11 +5935,10 @@
         <v>1.715162023901939E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">IF(ISBLANK(F67),D67,F67)</f>
         <v>0</v>
       </c>
     </row>
@@ -6019,11 +5953,10 @@
         <v>0.98546820878982544</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F68">
@@ -6041,11 +5974,10 @@
         <v>0.98539263010025024</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F69">
@@ -6063,11 +5995,10 @@
         <v>1.4045192860066891E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6082,11 +6013,10 @@
         <v>2.916867658495903E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6101,11 +6031,10 @@
         <v>2.3084854707121849E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6120,11 +6049,10 @@
         <v>0.98540997505187988</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F73">
@@ -6142,11 +6070,10 @@
         <v>1.4468147419393061E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6161,11 +6088,10 @@
         <v>1.593248546123505E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6180,11 +6106,10 @@
         <v>0.98548269271850586</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6199,11 +6124,10 @@
         <v>0.98389911651611328</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6218,11 +6142,10 @@
         <v>0.98537528514862061</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6237,11 +6160,10 @@
         <v>0.98530489206314087</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6256,11 +6178,10 @@
         <v>1.382352225482464E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6275,11 +6196,10 @@
         <v>0.16426678001880651</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6294,11 +6214,10 @@
         <v>0.9423670768737793</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6313,11 +6232,10 @@
         <v>1.4257813803851599E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6332,11 +6250,10 @@
         <v>0.985007643699646</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F84">
@@ -6354,11 +6271,10 @@
         <v>1.373773347586393E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6373,11 +6289,10 @@
         <v>1.4097016304731371E-2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6392,11 +6307,10 @@
         <v>1.3731886632740499E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6411,11 +6325,10 @@
         <v>0.14359644055366519</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6430,11 +6343,10 @@
         <v>1.389829348772764E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6449,11 +6361,10 @@
         <v>1.4164759777486321E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6468,11 +6379,10 @@
         <v>1.3720661401748661E-2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6487,11 +6397,10 @@
         <v>4.2488995939493179E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6506,11 +6415,10 @@
         <v>1.3781066983938221E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6525,11 +6433,10 @@
         <v>1.3546326197683809E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6544,11 +6451,10 @@
         <v>1.36286411434412E-2</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6563,11 +6469,10 @@
         <v>1.6298685222864151E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6582,11 +6487,10 @@
         <v>3.3125974237918847E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6601,11 +6505,10 @@
         <v>1.3908884488046169E-2</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6620,11 +6523,10 @@
         <v>0.96814906597137451</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F99">
@@ -6642,11 +6544,10 @@
         <v>1.385064143687487E-2</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6661,11 +6562,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6680,11 +6580,10 @@
         <v>1.40773868188262E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6699,11 +6598,10 @@
         <v>1.374724600464106E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6718,11 +6616,10 @@
         <v>2.608034759759903E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6737,11 +6634,10 @@
         <v>1.3843473047018049E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6756,11 +6652,10 @@
         <v>1.471000537276268E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6775,11 +6670,10 @@
         <v>1.3767257332801821E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6794,11 +6688,10 @@
         <v>2.608034759759903E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6813,11 +6706,10 @@
         <v>1.3631365261971951E-2</v>
       </c>
       <c r="D109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6832,11 +6724,10 @@
         <v>1.5897512435913089E-2</v>
       </c>
       <c r="D110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6851,11 +6742,10 @@
         <v>0.95186358690261841</v>
       </c>
       <c r="D111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F111">
@@ -6873,11 +6763,10 @@
         <v>1.368098147213459E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6892,11 +6781,10 @@
         <v>7.7527768909931183E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6911,11 +6799,10 @@
         <v>1.4214391820132731E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6930,11 +6817,10 @@
         <v>1.382192317396402E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6949,11 +6835,10 @@
         <v>1.367016322910786E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6968,11 +6853,10 @@
         <v>1.375426817685366E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6987,11 +6871,10 @@
         <v>1.3954463414847851E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7006,11 +6889,10 @@
         <v>1.3771951198577881E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7025,11 +6907,10 @@
         <v>0.96713542938232422</v>
       </c>
       <c r="D120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E120">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7044,11 +6925,10 @@
         <v>1.3797926716506479E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7063,11 +6943,10 @@
         <v>0.80521231889724731</v>
       </c>
       <c r="D122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E122">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F122">
@@ -7085,11 +6964,10 @@
         <v>1.474444661289454E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7104,11 +6982,10 @@
         <v>1.3633359223604201E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7123,11 +7000,10 @@
         <v>3.4083105623722083E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7142,11 +7018,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7161,11 +7036,10 @@
         <v>0.2175859808921814</v>
       </c>
       <c r="D127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7180,11 +7054,10 @@
         <v>1.3862931169569491E-2</v>
       </c>
       <c r="D128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7199,11 +7072,10 @@
         <v>1.3694822788238531E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7218,11 +7090,10 @@
         <v>1.3825381174683571E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:D193" si="4">IF(C130&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D130:D193" si="2">IF(C130&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7237,11 +7108,10 @@
         <v>1.622014120221138E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="5">IF(ISBLANK(F131),D131,F131)</f>
         <v>0</v>
       </c>
     </row>
@@ -7256,11 +7126,10 @@
         <v>1.432615797966719E-2</v>
       </c>
       <c r="D132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7275,11 +7144,10 @@
         <v>1.3908755034208299E-2</v>
       </c>
       <c r="D133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7294,11 +7162,10 @@
         <v>0.95482802391052246</v>
       </c>
       <c r="D134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E134">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F134">
@@ -7316,11 +7183,10 @@
         <v>0.96523004770278931</v>
       </c>
       <c r="D135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E135">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F135">
@@ -7338,11 +7204,10 @@
         <v>1.3550302013754839E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7357,11 +7222,10 @@
         <v>1.360992901027203E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7376,11 +7240,10 @@
         <v>0.98536413908004761</v>
       </c>
       <c r="D138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E138">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7395,11 +7258,10 @@
         <v>1.363416761159897E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7414,11 +7276,10 @@
         <v>3.6872725933790207E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7433,11 +7294,10 @@
         <v>1.3856726698577401E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7452,11 +7312,10 @@
         <v>1.428030896931887E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7471,11 +7330,10 @@
         <v>1.359532214701176E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7490,11 +7348,10 @@
         <v>1.361341867595911E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7509,11 +7366,10 @@
         <v>1.3838266022503379E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7528,11 +7384,10 @@
         <v>1.3835735619068149E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7547,11 +7402,10 @@
         <v>1.354498788714409E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7566,11 +7420,10 @@
         <v>1.3802113011479379E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7585,11 +7438,10 @@
         <v>1.360468845814466E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7604,11 +7456,10 @@
         <v>1.37430252507329E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7623,11 +7474,10 @@
         <v>4.8562802374362952E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7642,11 +7492,10 @@
         <v>0.80174589157104492</v>
       </c>
       <c r="D152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E152">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7661,11 +7510,10 @@
         <v>1.7105139791965481E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7680,11 +7528,10 @@
         <v>6.8194575607776642E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7699,11 +7546,10 @@
         <v>0.98521256446838379</v>
       </c>
       <c r="D155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E155">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F155">
@@ -7721,11 +7567,10 @@
         <v>0.97381579875946045</v>
       </c>
       <c r="D156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E156">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F156">
@@ -7743,11 +7588,10 @@
         <v>2.1168522536754612E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7762,11 +7606,10 @@
         <v>1.9816106185317039E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7781,11 +7624,10 @@
         <v>1.4029894024133681E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7800,11 +7642,10 @@
         <v>1.408750284463167E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7819,11 +7660,10 @@
         <v>1.380573585629463E-2</v>
       </c>
       <c r="D161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7838,11 +7678,10 @@
         <v>1.358422636985779E-2</v>
       </c>
       <c r="D162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7857,11 +7696,10 @@
         <v>1.416946202516556E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7876,11 +7714,10 @@
         <v>1.363089773803949E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7895,11 +7732,10 @@
         <v>4.3863028287887573E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7914,11 +7750,10 @@
         <v>1.4180143363773819E-2</v>
       </c>
       <c r="D166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7933,11 +7768,10 @@
         <v>1.412705425173044E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7952,11 +7786,10 @@
         <v>1.415118202567101E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7971,11 +7804,10 @@
         <v>0.21783192455768591</v>
       </c>
       <c r="D169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7990,11 +7822,10 @@
         <v>1.387358643114567E-2</v>
       </c>
       <c r="D170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8009,11 +7840,10 @@
         <v>0.98055011034011841</v>
       </c>
       <c r="D171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E171">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8028,11 +7858,10 @@
         <v>1.8985901027917858E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8047,11 +7876,10 @@
         <v>0.98505634069442749</v>
       </c>
       <c r="D173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E173">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F173">
@@ -8069,11 +7897,10 @@
         <v>0.98546743392944336</v>
       </c>
       <c r="D174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E174">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F174">
@@ -8091,11 +7918,10 @@
         <v>0.98486089706420898</v>
       </c>
       <c r="D175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E175">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8110,11 +7936,10 @@
         <v>1.4408456161618229E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8129,11 +7954,10 @@
         <v>1.3754580169916149E-2</v>
       </c>
       <c r="D177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8148,11 +7972,10 @@
         <v>0.97986435890197754</v>
       </c>
       <c r="D178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E178">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F178">
@@ -8170,11 +7993,10 @@
         <v>4.195505753159523E-2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8189,11 +8011,10 @@
         <v>0.98537558317184448</v>
       </c>
       <c r="D180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E180">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F180">
@@ -8211,11 +8032,10 @@
         <v>0.98541057109832764</v>
       </c>
       <c r="D181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E181">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8230,11 +8050,10 @@
         <v>0.98547923564910889</v>
       </c>
       <c r="D182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E182">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F182">
@@ -8252,11 +8071,10 @@
         <v>0.98476368188858032</v>
       </c>
       <c r="D183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E183">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F183">
@@ -8274,11 +8092,10 @@
         <v>0.86813706159591675</v>
       </c>
       <c r="D184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E184">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8293,11 +8110,10 @@
         <v>1.4347909949719909E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8312,11 +8128,10 @@
         <v>1.372446212917566E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8331,11 +8146,10 @@
         <v>1.372263580560684E-2</v>
       </c>
       <c r="D187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E187">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8350,11 +8164,10 @@
         <v>0.82216018438339233</v>
       </c>
       <c r="D188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E188">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F188">
@@ -8372,11 +8185,10 @@
         <v>1.365223154425621E-2</v>
       </c>
       <c r="D189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8391,11 +8203,10 @@
         <v>1.455280277878046E-2</v>
       </c>
       <c r="D190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8410,11 +8221,10 @@
         <v>0.93802380561828613</v>
       </c>
       <c r="D191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E191">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F191">
@@ -8432,11 +8242,10 @@
         <v>1.3712687417864799E-2</v>
       </c>
       <c r="D192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E192">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8451,11 +8260,10 @@
         <v>1.357879675924778E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8470,11 +8278,10 @@
         <v>1.375388167798519E-2</v>
       </c>
       <c r="D194">
-        <f t="shared" ref="D194:D257" si="6">IF(C194&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D194:D257" si="3">IF(C194&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E194">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8489,11 +8296,10 @@
         <v>0.16837182641029361</v>
       </c>
       <c r="D195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="7">IF(ISBLANK(F195),D195,F195)</f>
         <v>0</v>
       </c>
     </row>
@@ -8508,11 +8314,10 @@
         <v>1.364023424685001E-2</v>
       </c>
       <c r="D196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E196">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8527,11 +8332,10 @@
         <v>1.3632890768349171E-2</v>
       </c>
       <c r="D197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E197">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8546,11 +8350,10 @@
         <v>3.6916609853506088E-2</v>
       </c>
       <c r="D198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8565,11 +8368,10 @@
         <v>0.98547816276550293</v>
       </c>
       <c r="D199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E199">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8584,11 +8386,10 @@
         <v>0.94371968507766724</v>
       </c>
       <c r="D200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E200">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8603,11 +8404,10 @@
         <v>1.372169982641935E-2</v>
       </c>
       <c r="D201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E201">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8622,11 +8422,10 @@
         <v>0.98487687110900879</v>
       </c>
       <c r="D202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E202">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F202">
@@ -8644,11 +8443,10 @@
         <v>0.9853827953338623</v>
       </c>
       <c r="D203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E203">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F203">
@@ -8666,11 +8464,10 @@
         <v>0.9833715558052063</v>
       </c>
       <c r="D204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E204">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F204">
@@ -8688,11 +8485,10 @@
         <v>1.42455818131566E-2</v>
       </c>
       <c r="D205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E205">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8707,11 +8503,10 @@
         <v>0.98543649911880493</v>
       </c>
       <c r="D206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E206">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8726,11 +8521,10 @@
         <v>1.4936706051230431E-2</v>
       </c>
       <c r="D207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8745,11 +8539,10 @@
         <v>1.383674331009388E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8764,11 +8557,10 @@
         <v>0.9854850172996521</v>
       </c>
       <c r="D209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E209">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8783,11 +8575,10 @@
         <v>1.383639127016068E-2</v>
       </c>
       <c r="D210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E210">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8802,11 +8593,10 @@
         <v>7.67020583152771E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8821,11 +8611,10 @@
         <v>1.518637407571077E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8840,11 +8629,10 @@
         <v>0.91920250654220581</v>
       </c>
       <c r="D213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E213">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8859,11 +8647,10 @@
         <v>1.4652194455266001E-2</v>
       </c>
       <c r="D214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E214">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8878,11 +8665,10 @@
         <v>1.399641949683428E-2</v>
       </c>
       <c r="D215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E215">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8897,11 +8683,10 @@
         <v>0.98336154222488403</v>
       </c>
       <c r="D216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E216">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8916,11 +8701,10 @@
         <v>0.98489975929260254</v>
       </c>
       <c r="D217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E217">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8935,11 +8719,10 @@
         <v>4.2828049510717392E-2</v>
       </c>
       <c r="D218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E218">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8954,11 +8737,10 @@
         <v>1.373569201678038E-2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8973,11 +8755,10 @@
         <v>1.518328674137592E-2</v>
       </c>
       <c r="D220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8992,11 +8773,10 @@
         <v>1.3643257319927221E-2</v>
       </c>
       <c r="D221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E221">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9011,11 +8791,10 @@
         <v>1.3879897072911261E-2</v>
       </c>
       <c r="D222">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E222">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9030,11 +8809,10 @@
         <v>1.368336286395788E-2</v>
       </c>
       <c r="D223">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E223">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9049,11 +8827,10 @@
         <v>1.5381221659481531E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9068,11 +8845,10 @@
         <v>0.74125617742538452</v>
       </c>
       <c r="D225">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E225">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9087,11 +8863,10 @@
         <v>1.3719344511628149E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9106,11 +8881,10 @@
         <v>0.21764817833900449</v>
       </c>
       <c r="D227">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E227">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9125,11 +8899,10 @@
         <v>1.3669681735336781E-2</v>
       </c>
       <c r="D228">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E228">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9144,11 +8917,10 @@
         <v>1.8134104087948799E-2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E229">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9163,11 +8935,10 @@
         <v>1.4188391156494619E-2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E230">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9182,11 +8953,10 @@
         <v>0.91887325048446655</v>
       </c>
       <c r="D231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E231">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F231">
@@ -9204,11 +8974,10 @@
         <v>2.0792486146092411E-2</v>
       </c>
       <c r="D232">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E232">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9223,11 +8992,10 @@
         <v>0.9854159951210022</v>
       </c>
       <c r="D233">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E233">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9242,11 +9010,10 @@
         <v>1.3739031739532949E-2</v>
       </c>
       <c r="D234">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E234">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9261,11 +9028,10 @@
         <v>0.96527493000030518</v>
       </c>
       <c r="D235">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E235">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F235">
@@ -9283,11 +9049,10 @@
         <v>1.5529920347034929E-2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9302,11 +9067,10 @@
         <v>1.3767171651124951E-2</v>
       </c>
       <c r="D237">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E237">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9321,11 +9085,10 @@
         <v>0.98547804355621338</v>
       </c>
       <c r="D238">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E238">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9340,11 +9103,10 @@
         <v>0.98245370388031006</v>
       </c>
       <c r="D239">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E239">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F239">
@@ -9362,11 +9124,10 @@
         <v>0.86790913343429565</v>
       </c>
       <c r="D240">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E240">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F240">
@@ -9384,11 +9145,10 @@
         <v>1.6397379338741299E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9403,11 +9163,10 @@
         <v>5.4025202989578247E-2</v>
       </c>
       <c r="D242">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9422,11 +9181,10 @@
         <v>1.394296064972878E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9441,11 +9199,10 @@
         <v>0.98523116111755371</v>
       </c>
       <c r="D244">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E244">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F244">
@@ -9463,11 +9220,10 @@
         <v>0.16736440360546109</v>
       </c>
       <c r="D245">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E245">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9482,11 +9238,10 @@
         <v>0.98510253429412842</v>
       </c>
       <c r="D246">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E246">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F246">
@@ -9504,11 +9259,10 @@
         <v>1.864806562662125E-2</v>
       </c>
       <c r="D247">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E247">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9523,11 +9277,10 @@
         <v>1.556634996086359E-2</v>
       </c>
       <c r="D248">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E248">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9542,11 +9295,10 @@
         <v>0.98021572828292847</v>
       </c>
       <c r="D249">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E249">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9561,11 +9313,10 @@
         <v>1.416822895407677E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9580,11 +9331,10 @@
         <v>0.21783192455768591</v>
       </c>
       <c r="D251">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E251">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9599,11 +9349,10 @@
         <v>1.386553235352039E-2</v>
       </c>
       <c r="D252">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9618,11 +9367,10 @@
         <v>1.41552546992898E-2</v>
       </c>
       <c r="D253">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9637,11 +9385,10 @@
         <v>1.3667643070220951E-2</v>
       </c>
       <c r="D254">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E254">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9656,11 +9403,10 @@
         <v>0.98529762029647827</v>
       </c>
       <c r="D255">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E255">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F255">
@@ -9678,11 +9424,10 @@
         <v>1.399369537830353E-2</v>
       </c>
       <c r="D256">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9697,11 +9442,10 @@
         <v>1.4344653114676481E-2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9716,11 +9460,10 @@
         <v>1.376934908330441E-2</v>
       </c>
       <c r="D258">
-        <f t="shared" ref="D258:D321" si="8">IF(C258&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D258:D321" si="4">IF(C258&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E258">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9735,11 +9478,10 @@
         <v>0.98547863960266113</v>
       </c>
       <c r="D259">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="9">IF(ISBLANK(F259),D259,F259)</f>
         <v>0</v>
       </c>
       <c r="F259">
@@ -9757,11 +9499,10 @@
         <v>0.98537570238113403</v>
       </c>
       <c r="D260">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E260">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F260">
@@ -9779,11 +9520,10 @@
         <v>1.4082038775086399E-2</v>
       </c>
       <c r="D261">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9798,11 +9538,10 @@
         <v>0.98548120260238647</v>
       </c>
       <c r="D262">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E262">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F262">
@@ -9820,11 +9559,10 @@
         <v>1.3740472495555879E-2</v>
       </c>
       <c r="D263">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9839,11 +9577,10 @@
         <v>0.9722827672958374</v>
       </c>
       <c r="D264">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E264">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F264">
@@ -9861,11 +9598,10 @@
         <v>1.421062368899584E-2</v>
       </c>
       <c r="D265">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9880,11 +9616,10 @@
         <v>1.375667471438646E-2</v>
       </c>
       <c r="D266">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E266">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9899,11 +9634,10 @@
         <v>1.6025755554437641E-2</v>
       </c>
       <c r="D267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E267">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9918,11 +9652,10 @@
         <v>0.95636880397796631</v>
       </c>
       <c r="D268">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E268">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F268">
@@ -9940,11 +9673,10 @@
         <v>1.373464521020651E-2</v>
       </c>
       <c r="D269">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E269">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9959,11 +9691,10 @@
         <v>1.393039897084236E-2</v>
       </c>
       <c r="D270">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9978,11 +9709,10 @@
         <v>1.405459176748991E-2</v>
       </c>
       <c r="D271">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9997,11 +9727,10 @@
         <v>0.985443115234375</v>
       </c>
       <c r="D272">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E272">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10016,11 +9745,10 @@
         <v>1.365765836089849E-2</v>
       </c>
       <c r="D273">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E273">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10035,11 +9763,10 @@
         <v>1.387833710759878E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10054,11 +9781,10 @@
         <v>1.375758741050959E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10073,11 +9799,10 @@
         <v>3.1144477427005771E-2</v>
       </c>
       <c r="D276">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E276">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10092,11 +9817,10 @@
         <v>1.424519438296556E-2</v>
       </c>
       <c r="D277">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10111,11 +9835,10 @@
         <v>1.383785717189312E-2</v>
       </c>
       <c r="D278">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E278">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10130,11 +9853,10 @@
         <v>0.98516941070556641</v>
       </c>
       <c r="D279">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E279">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F279">
@@ -10152,11 +9874,10 @@
         <v>1.374789886176586E-2</v>
       </c>
       <c r="D280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10171,11 +9892,10 @@
         <v>2.0052617415785789E-2</v>
       </c>
       <c r="D281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E281">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10190,11 +9910,10 @@
         <v>1.3974376954138281E-2</v>
       </c>
       <c r="D282">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10209,11 +9928,10 @@
         <v>1.393553335219622E-2</v>
       </c>
       <c r="D283">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10228,11 +9946,10 @@
         <v>1.381267141550779E-2</v>
       </c>
       <c r="D284">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10247,11 +9964,10 @@
         <v>1.3777723535895349E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10266,11 +9982,10 @@
         <v>0.97419792413711548</v>
       </c>
       <c r="D286">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E286">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F286">
@@ -10288,11 +10003,10 @@
         <v>1.4540307223796839E-2</v>
       </c>
       <c r="D287">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E287">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10307,11 +10021,10 @@
         <v>0.95294380187988281</v>
       </c>
       <c r="D288">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E288">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F288">
@@ -10329,11 +10042,10 @@
         <v>1.391352899372578E-2</v>
       </c>
       <c r="D289">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E289">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10348,11 +10060,10 @@
         <v>0.98547899723052979</v>
       </c>
       <c r="D290">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E290">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F290">
@@ -10370,11 +10081,10 @@
         <v>1.4158503152430059E-2</v>
       </c>
       <c r="D291">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E291">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10389,11 +10099,10 @@
         <v>0.98548132181167603</v>
       </c>
       <c r="D292">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E292">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10408,11 +10117,10 @@
         <v>1.3980765827000139E-2</v>
       </c>
       <c r="D293">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E293">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10427,11 +10135,10 @@
         <v>1.381827052682638E-2</v>
       </c>
       <c r="D294">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E294">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10446,11 +10153,10 @@
         <v>2.4061098694801331E-2</v>
       </c>
       <c r="D295">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10465,11 +10171,10 @@
         <v>5.4817453026771552E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10484,11 +10189,10 @@
         <v>1.609128899872303E-2</v>
       </c>
       <c r="D297">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10503,11 +10207,10 @@
         <v>4.2384453117847443E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10522,11 +10225,10 @@
         <v>2.1001847460865971E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10541,11 +10243,10 @@
         <v>4.3977554887533188E-2</v>
       </c>
       <c r="D300">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E300">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10560,11 +10261,10 @@
         <v>1.487335097044706E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10579,11 +10279,10 @@
         <v>1.385845243930817E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10598,11 +10297,10 @@
         <v>1.3859059661626819E-2</v>
       </c>
       <c r="D303">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10617,11 +10315,10 @@
         <v>1.992927864193916E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10636,11 +10333,10 @@
         <v>1.390656922012568E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10655,11 +10351,10 @@
         <v>1.3622552156448361E-2</v>
       </c>
       <c r="D306">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10674,11 +10369,10 @@
         <v>2.7964385226368901E-2</v>
       </c>
       <c r="D307">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10693,11 +10387,10 @@
         <v>0.2178255170583725</v>
       </c>
       <c r="D308">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E308">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10712,11 +10405,10 @@
         <v>0.45779019594192499</v>
       </c>
       <c r="D309">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E309">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10731,11 +10423,10 @@
         <v>1.362894847989082E-2</v>
       </c>
       <c r="D310">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E310">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10750,11 +10441,10 @@
         <v>1.381514593958855E-2</v>
       </c>
       <c r="D311">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E311">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10769,11 +10459,10 @@
         <v>1.380901969969273E-2</v>
       </c>
       <c r="D312">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E312">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10788,11 +10477,10 @@
         <v>0.67344743013381958</v>
       </c>
       <c r="D313">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E313">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10807,11 +10495,10 @@
         <v>1.4716550707817079E-2</v>
       </c>
       <c r="D314">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E314">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10826,11 +10513,10 @@
         <v>1.499480474740267E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10845,11 +10531,10 @@
         <v>0.98545432090759277</v>
       </c>
       <c r="D316">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E316">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10864,11 +10549,10 @@
         <v>0.98475885391235352</v>
       </c>
       <c r="D317">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E317">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F317">
@@ -10886,11 +10570,10 @@
         <v>0.98540318012237549</v>
       </c>
       <c r="D318">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E318">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F318">
@@ -10908,11 +10591,10 @@
         <v>1.3886940665543079E-2</v>
       </c>
       <c r="D319">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E319">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10927,11 +10609,10 @@
         <v>0.96360397338867188</v>
       </c>
       <c r="D320">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E320">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F320">
@@ -10949,11 +10630,10 @@
         <v>3.40251624584198E-2</v>
       </c>
       <c r="D321">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E321">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10968,11 +10648,10 @@
         <v>1.3661930337548259E-2</v>
       </c>
       <c r="D322">
-        <f t="shared" ref="D322:D385" si="10">IF(C322&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D322:D385" si="5">IF(C322&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E322">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10987,11 +10666,10 @@
         <v>1.5676762908697128E-2</v>
       </c>
       <c r="D323">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="11">IF(ISBLANK(F323),D323,F323)</f>
         <v>0</v>
       </c>
     </row>
@@ -11006,11 +10684,10 @@
         <v>1.424955390393734E-2</v>
       </c>
       <c r="D324">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E324">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11025,11 +10702,10 @@
         <v>1.6831912100315091E-2</v>
       </c>
       <c r="D325">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11044,11 +10720,10 @@
         <v>1.374287717044353E-2</v>
       </c>
       <c r="D326">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11063,11 +10738,10 @@
         <v>1.4150430448353291E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11082,11 +10756,10 @@
         <v>0.98538392782211304</v>
       </c>
       <c r="D328">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E328">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11101,11 +10774,10 @@
         <v>3.1684309244155877E-2</v>
       </c>
       <c r="D329">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E329">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11120,11 +10792,10 @@
         <v>3.40251624584198E-2</v>
       </c>
       <c r="D330">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11139,11 +10810,10 @@
         <v>1.3790181837975981E-2</v>
       </c>
       <c r="D331">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E331">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11158,11 +10828,10 @@
         <v>4.0232691913843148E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11177,11 +10846,10 @@
         <v>1.5031153336167341E-2</v>
       </c>
       <c r="D333">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11196,11 +10864,10 @@
         <v>1.380824204534292E-2</v>
       </c>
       <c r="D334">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E334">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11215,11 +10882,10 @@
         <v>1.879375800490379E-2</v>
       </c>
       <c r="D335">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E335">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11234,11 +10900,10 @@
         <v>2.0027695223689079E-2</v>
       </c>
       <c r="D336">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E336">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11253,11 +10918,10 @@
         <v>0.1647326052188873</v>
       </c>
       <c r="D337">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E337">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11272,11 +10936,10 @@
         <v>0.87716090679168701</v>
       </c>
       <c r="D338">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E338">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F338">
@@ -11294,11 +10957,10 @@
         <v>4.8454269766807563E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11313,11 +10975,10 @@
         <v>0.8581727147102356</v>
       </c>
       <c r="D340">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E340">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F340">
@@ -11335,11 +10996,10 @@
         <v>1.5627129003405571E-2</v>
       </c>
       <c r="D341">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11354,11 +11014,10 @@
         <v>0.9657520055770874</v>
       </c>
       <c r="D342">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E342">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11373,11 +11032,10 @@
         <v>1.372800674289465E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11392,11 +11050,10 @@
         <v>2.0065983757376671E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11411,11 +11068,10 @@
         <v>3.6403626203536987E-2</v>
       </c>
       <c r="D345">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11430,11 +11086,10 @@
         <v>1.380879990756512E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11449,11 +11104,10 @@
         <v>1.378771755844355E-2</v>
       </c>
       <c r="D347">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11468,11 +11122,10 @@
         <v>0.97722697257995605</v>
       </c>
       <c r="D348">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E348">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F348">
@@ -11490,11 +11143,10 @@
         <v>0.9835895299911499</v>
       </c>
       <c r="D349">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E349">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F349">
@@ -11512,11 +11164,10 @@
         <v>1.423843950033188E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11531,11 +11182,10 @@
         <v>0.98543119430541992</v>
       </c>
       <c r="D351">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E351">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11550,11 +11200,10 @@
         <v>1.442963443696499E-2</v>
       </c>
       <c r="D352">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E352">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11569,11 +11218,10 @@
         <v>1.4026292599737641E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11588,11 +11236,10 @@
         <v>1.3764026574790479E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11607,11 +11254,10 @@
         <v>0.97111916542053223</v>
       </c>
       <c r="D355">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E355">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F355">
@@ -11629,11 +11275,10 @@
         <v>1.359850727021694E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11648,11 +11293,10 @@
         <v>0.92237734794616699</v>
       </c>
       <c r="D357">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E357">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F357">
@@ -11670,11 +11314,10 @@
         <v>1.5951275825500488E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11689,11 +11332,10 @@
         <v>1.403580605983734E-2</v>
       </c>
       <c r="D359">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11708,11 +11350,10 @@
         <v>0.98534190654754639</v>
       </c>
       <c r="D360">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E360">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F360">
@@ -11730,11 +11371,10 @@
         <v>0.91090977191925049</v>
       </c>
       <c r="D361">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E361">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F361">
@@ -11752,11 +11392,10 @@
         <v>1.392454467713833E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11771,11 +11410,10 @@
         <v>1.3938856311142439E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11790,11 +11428,10 @@
         <v>1.6715256497263908E-2</v>
       </c>
       <c r="D364">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11809,11 +11446,10 @@
         <v>1.8339525908231739E-2</v>
       </c>
       <c r="D365">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11828,11 +11464,10 @@
         <v>0.98545801639556885</v>
       </c>
       <c r="D366">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E366">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F366">
@@ -11850,11 +11485,10 @@
         <v>1.3683401048183439E-2</v>
       </c>
       <c r="D367">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E367">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11869,11 +11503,10 @@
         <v>1.387237384915352E-2</v>
       </c>
       <c r="D368">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E368">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11888,11 +11521,10 @@
         <v>0.98533487319946289</v>
       </c>
       <c r="D369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E369">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11907,11 +11539,10 @@
         <v>1.411262433975935E-2</v>
       </c>
       <c r="D370">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11926,11 +11557,10 @@
         <v>0.98546046018600464</v>
       </c>
       <c r="D371">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E371">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11945,11 +11575,10 @@
         <v>0.9363706111907959</v>
       </c>
       <c r="D372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E372">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11964,11 +11593,10 @@
         <v>1.391065120697021E-2</v>
       </c>
       <c r="D373">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E373">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11983,11 +11611,10 @@
         <v>1.369488053023815E-2</v>
       </c>
       <c r="D374">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E374">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12002,11 +11629,10 @@
         <v>0.98252880573272705</v>
       </c>
       <c r="D375">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E375">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F375">
@@ -12024,11 +11650,10 @@
         <v>1.4036848209798339E-2</v>
       </c>
       <c r="D376">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E376">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12043,11 +11668,10 @@
         <v>1.381923910230398E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12062,11 +11686,10 @@
         <v>1.3778922148048879E-2</v>
       </c>
       <c r="D378">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12081,11 +11704,10 @@
         <v>1.432299427688122E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12100,11 +11722,10 @@
         <v>1.7427340149879459E-2</v>
       </c>
       <c r="D380">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E380">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12119,11 +11740,10 @@
         <v>1.363723259419203E-2</v>
       </c>
       <c r="D381">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E381">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12138,11 +11758,10 @@
         <v>1.3768604025244709E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12157,11 +11776,10 @@
         <v>1.383108459413052E-2</v>
       </c>
       <c r="D383">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E383">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12176,11 +11794,10 @@
         <v>1.48996701464057E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12195,11 +11812,10 @@
         <v>1.4221316203475E-2</v>
       </c>
       <c r="D385">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E385">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12214,11 +11830,10 @@
         <v>0.98523581027984619</v>
       </c>
       <c r="D386">
-        <f t="shared" ref="D386:D449" si="12">IF(C386&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D386:D449" si="6">IF(C386&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E386">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F386">
@@ -12236,11 +11851,10 @@
         <v>1.412343047559261E-2</v>
       </c>
       <c r="D387">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="13">IF(ISBLANK(F387),D387,F387)</f>
         <v>0</v>
       </c>
     </row>
@@ -12255,11 +11869,10 @@
         <v>1.5538963489234449E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12274,11 +11887,10 @@
         <v>1.3614257797598841E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12293,11 +11905,10 @@
         <v>1.8236946314573291E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12312,11 +11923,10 @@
         <v>1.6221420839428902E-2</v>
       </c>
       <c r="D391">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12331,11 +11941,10 @@
         <v>0.98485976457595825</v>
       </c>
       <c r="D392">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E392">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F392">
@@ -12353,11 +11962,10 @@
         <v>1.367276720702648E-2</v>
       </c>
       <c r="D393">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E393">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12372,11 +11980,10 @@
         <v>3.3904246985912323E-2</v>
       </c>
       <c r="D394">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12391,11 +11998,10 @@
         <v>1.907340437173843E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12410,11 +12016,10 @@
         <v>1.384804397821426E-2</v>
       </c>
       <c r="D396">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E396">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12429,11 +12034,10 @@
         <v>0.98485004901885986</v>
       </c>
       <c r="D397">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E397">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F397">
@@ -12451,11 +12055,10 @@
         <v>2.7960658073425289E-2</v>
       </c>
       <c r="D398">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E398">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12470,11 +12073,10 @@
         <v>9.9767871201038361E-2</v>
       </c>
       <c r="D399">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E399">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12489,11 +12091,10 @@
         <v>1.380055490881205E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12508,11 +12109,10 @@
         <v>1.394189894199371E-2</v>
       </c>
       <c r="D401">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E401">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12527,11 +12127,10 @@
         <v>0.91365170478820801</v>
       </c>
       <c r="D402">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E402">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -12546,11 +12145,10 @@
         <v>1.4290750026702881E-2</v>
       </c>
       <c r="D403">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E403">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12565,11 +12163,10 @@
         <v>1.412842329591513E-2</v>
       </c>
       <c r="D404">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E404">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12584,11 +12181,10 @@
         <v>1.4083324000239371E-2</v>
       </c>
       <c r="D405">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E405">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12603,11 +12199,10 @@
         <v>1.363078877329826E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12622,11 +12217,10 @@
         <v>1.414682622998953E-2</v>
       </c>
       <c r="D407">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E407">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12641,11 +12235,10 @@
         <v>1.376589108258486E-2</v>
       </c>
       <c r="D408">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E408">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12660,11 +12253,10 @@
         <v>0.93069779872894287</v>
       </c>
       <c r="D409">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E409">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F409">
@@ -12682,11 +12274,10 @@
         <v>1.3831376098096371E-2</v>
       </c>
       <c r="D410">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E410">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12701,11 +12292,10 @@
         <v>1.4364265836775299E-2</v>
       </c>
       <c r="D411">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E411">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12720,11 +12310,10 @@
         <v>1.4837732538580889E-2</v>
       </c>
       <c r="D412">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E412">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12739,11 +12328,10 @@
         <v>1.359852682799101E-2</v>
       </c>
       <c r="D413">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12758,11 +12346,10 @@
         <v>1.3631166890263559E-2</v>
       </c>
       <c r="D414">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E414">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12777,11 +12364,10 @@
         <v>0.13281901180744171</v>
       </c>
       <c r="D415">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E415">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12796,11 +12382,10 @@
         <v>1.3661897741258139E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12815,11 +12400,10 @@
         <v>1.4752623625099661E-2</v>
       </c>
       <c r="D417">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E417">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12834,11 +12418,10 @@
         <v>1.3608265668153759E-2</v>
       </c>
       <c r="D418">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E418">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12853,11 +12436,10 @@
         <v>1.3955763541162011E-2</v>
       </c>
       <c r="D419">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E419">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12872,11 +12454,10 @@
         <v>1.3893791474401951E-2</v>
       </c>
       <c r="D420">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E420">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12891,11 +12472,10 @@
         <v>1.4190312474966049E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12910,11 +12490,10 @@
         <v>1.537890918552876E-2</v>
       </c>
       <c r="D422">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12929,11 +12508,10 @@
         <v>1.370482239872217E-2</v>
       </c>
       <c r="D423">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E423">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12948,11 +12526,10 @@
         <v>1.4893883839249609E-2</v>
       </c>
       <c r="D424">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E424">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12967,11 +12544,10 @@
         <v>1.3941328041255471E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12986,11 +12562,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D426">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13005,11 +12580,10 @@
         <v>0.98347002267837524</v>
       </c>
       <c r="D427">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E427">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F427">
@@ -13027,11 +12601,10 @@
         <v>2.608034759759903E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13046,11 +12619,10 @@
         <v>1.809981465339661E-2</v>
       </c>
       <c r="D429">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E429">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13065,11 +12637,10 @@
         <v>1.435725297778845E-2</v>
       </c>
       <c r="D430">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E430">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13084,11 +12655,10 @@
         <v>0.97997516393661499</v>
       </c>
       <c r="D431">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E431">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F431">
@@ -13106,11 +12676,10 @@
         <v>1.378933247178793E-2</v>
       </c>
       <c r="D432">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E432">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13125,11 +12694,10 @@
         <v>0.98537003993988037</v>
       </c>
       <c r="D433">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E433">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F433">
@@ -13147,11 +12715,10 @@
         <v>1.371114049106836E-2</v>
       </c>
       <c r="D434">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E434">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13166,11 +12733,10 @@
         <v>1.361812651157379E-2</v>
       </c>
       <c r="D435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E435">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13185,11 +12751,10 @@
         <v>0.86729419231414795</v>
       </c>
       <c r="D436">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E436">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F436">
@@ -13207,11 +12772,10 @@
         <v>1.3631396926939489E-2</v>
       </c>
       <c r="D437">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13226,11 +12790,10 @@
         <v>1.368578895926476E-2</v>
       </c>
       <c r="D438">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13245,11 +12808,10 @@
         <v>1.4287654310464861E-2</v>
       </c>
       <c r="D439">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E439">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13264,11 +12826,10 @@
         <v>1.502043381333351E-2</v>
       </c>
       <c r="D440">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E440">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13283,11 +12844,10 @@
         <v>2.676108293235302E-2</v>
       </c>
       <c r="D441">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E441">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13302,11 +12862,10 @@
         <v>1.3615782372653479E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13321,11 +12880,10 @@
         <v>1.8921298906207081E-2</v>
       </c>
       <c r="D443">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13340,11 +12898,10 @@
         <v>4.2241878807544708E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13359,11 +12916,10 @@
         <v>1.853035390377045E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13378,11 +12934,10 @@
         <v>1.368200406432152E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13397,11 +12952,10 @@
         <v>2.608034759759903E-2</v>
       </c>
       <c r="D447">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13416,11 +12970,10 @@
         <v>1.665174588561058E-2</v>
       </c>
       <c r="D448">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13435,11 +12988,10 @@
         <v>1.3725359924137591E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13454,11 +13006,10 @@
         <v>6.6823668777942657E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" ref="D450:D513" si="14">IF(C450&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D450:D513" si="7">IF(C450&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13473,11 +13024,10 @@
         <v>8.8830806314945221E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E514" si="15">IF(ISBLANK(F451),D451,F451)</f>
         <v>0</v>
       </c>
     </row>
@@ -13492,11 +13042,10 @@
         <v>0.9830554723739624</v>
       </c>
       <c r="D452">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E452">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F452">
@@ -13514,11 +13063,10 @@
         <v>1.554182358086109E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13533,11 +13081,10 @@
         <v>1.5273586846888071E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13552,11 +13099,10 @@
         <v>1.3746825978159899E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13571,11 +13117,10 @@
         <v>1.3799965381622309E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13590,11 +13135,10 @@
         <v>1.364943198859692E-2</v>
       </c>
       <c r="D457">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E457">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13609,11 +13153,10 @@
         <v>1.7648009583354E-2</v>
       </c>
       <c r="D458">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13628,11 +13171,10 @@
         <v>1.446940470486879E-2</v>
       </c>
       <c r="D459">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E459">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13647,11 +13189,10 @@
         <v>1.380095724016428E-2</v>
       </c>
       <c r="D460">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E460">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13666,11 +13207,10 @@
         <v>1.3881378807127479E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13685,11 +13225,10 @@
         <v>0.98522144556045532</v>
       </c>
       <c r="D462">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E462">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F462">
@@ -13707,11 +13246,10 @@
         <v>1.408342365175486E-2</v>
       </c>
       <c r="D463">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E463">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13726,11 +13264,10 @@
         <v>2.2224158048629761E-2</v>
       </c>
       <c r="D464">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E464">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13745,11 +13282,10 @@
         <v>1.3843441382050511E-2</v>
       </c>
       <c r="D465">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E465">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13764,11 +13300,10 @@
         <v>1.417463179677725E-2</v>
       </c>
       <c r="D466">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E466">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13783,11 +13318,10 @@
         <v>1.4001559466123579E-2</v>
       </c>
       <c r="D467">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E467">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13802,11 +13336,10 @@
         <v>0.22058723866939539</v>
       </c>
       <c r="D468">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13821,11 +13354,10 @@
         <v>3.1658358871936798E-2</v>
       </c>
       <c r="D469">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E469">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13840,11 +13372,10 @@
         <v>0.21716414391994479</v>
       </c>
       <c r="D470">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E470">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13859,11 +13390,10 @@
         <v>1.5194105915725229E-2</v>
       </c>
       <c r="D471">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E471">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13878,11 +13408,10 @@
         <v>1.4105985872447491E-2</v>
       </c>
       <c r="D472">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E472">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13897,11 +13426,10 @@
         <v>0.97889208793640137</v>
       </c>
       <c r="D473">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E473">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F473">
@@ -13919,11 +13447,10 @@
         <v>0.98515921831130981</v>
       </c>
       <c r="D474">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E474">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F474">
@@ -13941,11 +13468,10 @@
         <v>1.7207864671945568E-2</v>
       </c>
       <c r="D475">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13960,11 +13486,10 @@
         <v>0.98518848419189453</v>
       </c>
       <c r="D476">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E476">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F476">
@@ -13982,11 +13507,10 @@
         <v>2.1031327545642849E-2</v>
       </c>
       <c r="D477">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E477">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14001,11 +13525,10 @@
         <v>8.1138834357261658E-2</v>
       </c>
       <c r="D478">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14020,11 +13543,10 @@
         <v>1.417760364711285E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14039,11 +13561,10 @@
         <v>1.3785078190267089E-2</v>
       </c>
       <c r="D480">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14058,11 +13579,10 @@
         <v>1.36135732755065E-2</v>
       </c>
       <c r="D481">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E481">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14077,11 +13597,10 @@
         <v>1.368255168199539E-2</v>
       </c>
       <c r="D482">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E482">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14096,11 +13615,10 @@
         <v>1.366412080824375E-2</v>
       </c>
       <c r="D483">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E483">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14115,11 +13633,10 @@
         <v>1.47823104634881E-2</v>
       </c>
       <c r="D484">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E484">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14134,11 +13651,10 @@
         <v>2.608034759759903E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14153,11 +13669,10 @@
         <v>1.426022779196501E-2</v>
       </c>
       <c r="D486">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E486">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14172,11 +13687,10 @@
         <v>1.5433127991855139E-2</v>
       </c>
       <c r="D487">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E487">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14191,11 +13705,10 @@
         <v>1.370945759117603E-2</v>
       </c>
       <c r="D488">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E488">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14210,11 +13723,10 @@
         <v>1.8596051260828968E-2</v>
       </c>
       <c r="D489">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E489">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14229,11 +13741,10 @@
         <v>1.422025915235281E-2</v>
       </c>
       <c r="D490">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E490">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14248,11 +13759,10 @@
         <v>1.3805625028908249E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14267,11 +13777,10 @@
         <v>1.38399712741375E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14286,11 +13795,10 @@
         <v>1.467620674520731E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14305,11 +13813,10 @@
         <v>1.3791057281196119E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14324,11 +13831,10 @@
         <v>0.98528927564620972</v>
       </c>
       <c r="D495">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E495">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F495">
@@ -14346,11 +13852,10 @@
         <v>1.377147808670998E-2</v>
       </c>
       <c r="D496">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E496">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14365,11 +13870,10 @@
         <v>1.364823058247566E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14384,11 +13888,10 @@
         <v>1.360774040222168E-2</v>
       </c>
       <c r="D498">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E498">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14403,11 +13906,10 @@
         <v>1.376142539083958E-2</v>
       </c>
       <c r="D499">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14422,11 +13924,10 @@
         <v>1.3865103013813501E-2</v>
       </c>
       <c r="D500">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E500">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14441,11 +13942,10 @@
         <v>1.360491104424E-2</v>
       </c>
       <c r="D501">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E501">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14460,11 +13960,10 @@
         <v>0.26519632339477539</v>
       </c>
       <c r="D502">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E502">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14479,11 +13978,10 @@
         <v>1.3698043301701549E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14498,11 +13996,10 @@
         <v>2.1356500685215E-2</v>
       </c>
       <c r="D504">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14517,11 +14014,10 @@
         <v>1.3811890967190271E-2</v>
       </c>
       <c r="D505">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E505">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14536,11 +14032,10 @@
         <v>1.45382359623909E-2</v>
       </c>
       <c r="D506">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E506">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14555,11 +14050,10 @@
         <v>1.3862240128219129E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14574,11 +14068,10 @@
         <v>1.435039192438126E-2</v>
       </c>
       <c r="D508">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14593,11 +14086,10 @@
         <v>0.97385108470916748</v>
       </c>
       <c r="D509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E509">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F509">
@@ -14615,11 +14107,10 @@
         <v>1.398616284132004E-2</v>
       </c>
       <c r="D510">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E510">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14634,11 +14125,10 @@
         <v>1.369028259068727E-2</v>
       </c>
       <c r="D511">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E511">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14653,11 +14143,10 @@
         <v>1.7171526327729229E-2</v>
       </c>
       <c r="D512">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14672,11 +14161,10 @@
         <v>1.3739031739532949E-2</v>
       </c>
       <c r="D513">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14691,11 +14179,10 @@
         <v>3.5072583705186837E-2</v>
       </c>
       <c r="D514">
-        <f t="shared" ref="D514:D577" si="16">IF(C514&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D514:D577" si="8">IF(C514&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14710,11 +14197,10 @@
         <v>1.3924733735620981E-2</v>
       </c>
       <c r="D515">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E515">
-        <f t="shared" ref="E515:E578" si="17">IF(ISBLANK(F515),D515,F515)</f>
         <v>0</v>
       </c>
     </row>
@@ -14729,11 +14215,10 @@
         <v>1.389046665281057E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14748,11 +14233,10 @@
         <v>1.405058708041906E-2</v>
       </c>
       <c r="D517">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14767,11 +14251,10 @@
         <v>1.6087191179394719E-2</v>
       </c>
       <c r="D518">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E518">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14786,11 +14269,10 @@
         <v>1.369576342403889E-2</v>
       </c>
       <c r="D519">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E519">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14805,11 +14287,10 @@
         <v>1.408548932522535E-2</v>
       </c>
       <c r="D520">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E520">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14824,11 +14305,10 @@
         <v>1.3726547360420231E-2</v>
       </c>
       <c r="D521">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E521">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14843,11 +14323,10 @@
         <v>1.5376860275864599E-2</v>
       </c>
       <c r="D522">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14862,11 +14341,10 @@
         <v>0.21733036637306211</v>
       </c>
       <c r="D523">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E523">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14881,11 +14359,10 @@
         <v>1.365786883980036E-2</v>
       </c>
       <c r="D524">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E524">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14900,11 +14377,10 @@
         <v>0.98544669151306152</v>
       </c>
       <c r="D525">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E525">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -14919,11 +14395,10 @@
         <v>1.4186796732246879E-2</v>
       </c>
       <c r="D526">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E526">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14938,11 +14413,10 @@
         <v>1.7791120335459709E-2</v>
       </c>
       <c r="D527">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14957,11 +14431,10 @@
         <v>0.9722827672958374</v>
       </c>
       <c r="D528">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E528">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F528">
@@ -14979,11 +14452,10 @@
         <v>1.3833217322826391E-2</v>
       </c>
       <c r="D529">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E529">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14998,11 +14470,10 @@
         <v>1.3901889324188231E-2</v>
       </c>
       <c r="D530">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15017,11 +14488,10 @@
         <v>0.9854164719581604</v>
       </c>
       <c r="D531">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E531">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F531">
@@ -15039,11 +14509,10 @@
         <v>1.368595007807016E-2</v>
       </c>
       <c r="D532">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E532">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15058,11 +14527,10 @@
         <v>0.54186165332794189</v>
       </c>
       <c r="D533">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E533">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F533">
@@ -15080,11 +14548,10 @@
         <v>1.3790830969810489E-2</v>
       </c>
       <c r="D534">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E534">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15099,11 +14566,10 @@
         <v>4.6940062195062637E-2</v>
       </c>
       <c r="D535">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E535">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15118,11 +14584,10 @@
         <v>1.39098921790719E-2</v>
       </c>
       <c r="D536">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15137,11 +14602,10 @@
         <v>1.4148814603686329E-2</v>
       </c>
       <c r="D537">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E537">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15156,11 +14620,10 @@
         <v>1.359311025589705E-2</v>
       </c>
       <c r="D538">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E538">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15175,11 +14638,10 @@
         <v>1.3698171824216839E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15194,11 +14656,10 @@
         <v>1.366466097533703E-2</v>
       </c>
       <c r="D540">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E540">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15213,11 +14674,10 @@
         <v>1.497051026672125E-2</v>
       </c>
       <c r="D541">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E541">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15232,11 +14692,10 @@
         <v>0.97650468349456787</v>
       </c>
       <c r="D542">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E542">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F542">
@@ -15254,11 +14713,10 @@
         <v>1.497051026672125E-2</v>
       </c>
       <c r="D543">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15273,11 +14731,10 @@
         <v>0.98542517423629761</v>
       </c>
       <c r="D544">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E544">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F544">
@@ -15295,11 +14752,10 @@
         <v>1.458120159804821E-2</v>
       </c>
       <c r="D545">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E545">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15314,11 +14770,10 @@
         <v>3.3097375184297562E-2</v>
       </c>
       <c r="D546">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E546">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15333,11 +14788,10 @@
         <v>1.368904020637274E-2</v>
       </c>
       <c r="D547">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15352,11 +14806,10 @@
         <v>1.389880385249853E-2</v>
       </c>
       <c r="D548">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15371,11 +14824,10 @@
         <v>1.379938703030348E-2</v>
       </c>
       <c r="D549">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E549">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15390,11 +14842,10 @@
         <v>1.369180902838707E-2</v>
       </c>
       <c r="D550">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E550">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15409,11 +14860,10 @@
         <v>1.746820472180843E-2</v>
       </c>
       <c r="D551">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E551">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15428,11 +14878,10 @@
         <v>1.676438003778458E-2</v>
       </c>
       <c r="D552">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E552">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15447,11 +14896,10 @@
         <v>1.378295384347439E-2</v>
       </c>
       <c r="D553">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E553">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15466,11 +14914,10 @@
         <v>1.373458653688431E-2</v>
       </c>
       <c r="D554">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E554">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15485,11 +14932,10 @@
         <v>1.3645420782268051E-2</v>
       </c>
       <c r="D555">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E555">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15504,11 +14950,10 @@
         <v>3.052733838558197E-2</v>
       </c>
       <c r="D556">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E556">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15523,11 +14968,10 @@
         <v>1.372617948800325E-2</v>
       </c>
       <c r="D557">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E557">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15542,11 +14986,10 @@
         <v>1.469587720930576E-2</v>
       </c>
       <c r="D558">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15561,11 +15004,10 @@
         <v>1.375305280089378E-2</v>
       </c>
       <c r="D559">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E559">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15580,11 +15022,10 @@
         <v>1.50007214397192E-2</v>
       </c>
       <c r="D560">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15599,11 +15040,10 @@
         <v>1.402187533676624E-2</v>
       </c>
       <c r="D561">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E561">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15618,11 +15058,10 @@
         <v>2.1683728322386742E-2</v>
       </c>
       <c r="D562">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15637,11 +15076,10 @@
         <v>1.3632038608193399E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15656,11 +15094,10 @@
         <v>1.361826620995998E-2</v>
       </c>
       <c r="D564">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E564">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15675,11 +15112,10 @@
         <v>0.97205948829650879</v>
       </c>
       <c r="D565">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E565">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F565">
@@ -15697,11 +15133,10 @@
         <v>1.378294080495834E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15716,11 +15151,10 @@
         <v>1.3666968792676931E-2</v>
       </c>
       <c r="D567">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E567">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15735,11 +15169,10 @@
         <v>1.36860990896821E-2</v>
       </c>
       <c r="D568">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E568">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15754,11 +15187,10 @@
         <v>1.4748910441994671E-2</v>
       </c>
       <c r="D569">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E569">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15773,11 +15205,10 @@
         <v>1.3608803041279319E-2</v>
       </c>
       <c r="D570">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E570">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15792,11 +15223,10 @@
         <v>1.3567725196480749E-2</v>
       </c>
       <c r="D571">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E571">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15811,11 +15241,10 @@
         <v>0.98548173904418945</v>
       </c>
       <c r="D572">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E572">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F572">
@@ -15833,11 +15262,10 @@
         <v>0.9854845404624939</v>
       </c>
       <c r="D573">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E573">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F573">
@@ -15855,11 +15283,10 @@
         <v>0.22019724547863009</v>
       </c>
       <c r="D574">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E574">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15874,11 +15301,10 @@
         <v>1.3553979806601999E-2</v>
       </c>
       <c r="D575">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E575">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15893,11 +15319,10 @@
         <v>0.21734289824962619</v>
       </c>
       <c r="D576">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E576">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15912,11 +15337,10 @@
         <v>1.355845667421818E-2</v>
       </c>
       <c r="D577">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E577">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15931,11 +15355,10 @@
         <v>1.5034139156341549E-2</v>
       </c>
       <c r="D578">
-        <f t="shared" ref="D578:D641" si="18">IF(C578&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D578:D641" si="9">IF(C578&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E578">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15950,11 +15373,10 @@
         <v>1.3638215139508251E-2</v>
       </c>
       <c r="D579">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E579">
-        <f t="shared" ref="E579:E642" si="19">IF(ISBLANK(F579),D579,F579)</f>
         <v>0</v>
       </c>
     </row>
@@ -15969,11 +15391,10 @@
         <v>5.5745784193277359E-2</v>
       </c>
       <c r="D580">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E580">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -15988,11 +15409,10 @@
         <v>2.6914190500974659E-2</v>
       </c>
       <c r="D581">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E581">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16007,11 +15427,10 @@
         <v>1.414219196885824E-2</v>
       </c>
       <c r="D582">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E582">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16026,11 +15445,10 @@
         <v>1.368244271725416E-2</v>
       </c>
       <c r="D583">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E583">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16045,11 +15463,10 @@
         <v>1.9483692944049839E-2</v>
       </c>
       <c r="D584">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E584">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16064,11 +15481,10 @@
         <v>0.21716505289077759</v>
       </c>
       <c r="D585">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E585">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16083,11 +15499,10 @@
         <v>1.380073092877865E-2</v>
       </c>
       <c r="D586">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E586">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16102,11 +15517,10 @@
         <v>0.79415786266326904</v>
       </c>
       <c r="D587">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E587">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F587">
@@ -16124,11 +15538,10 @@
         <v>0.98543232679367065</v>
       </c>
       <c r="D588">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E588">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F588">
@@ -16146,11 +15559,10 @@
         <v>8.5615299642086029E-2</v>
       </c>
       <c r="D589">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E589">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16165,11 +15577,10 @@
         <v>1.415553502738476E-2</v>
       </c>
       <c r="D590">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E590">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16184,11 +15595,10 @@
         <v>1.4475300908088681E-2</v>
       </c>
       <c r="D591">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E591">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16203,11 +15613,10 @@
         <v>1.7674805596470829E-2</v>
       </c>
       <c r="D592">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E592">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16222,11 +15631,10 @@
         <v>0.21716505289077759</v>
       </c>
       <c r="D593">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E593">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16241,11 +15649,10 @@
         <v>1.404512673616409E-2</v>
       </c>
       <c r="D594">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E594">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16260,11 +15667,10 @@
         <v>0.98544436693191528</v>
       </c>
       <c r="D595">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E595">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F595">
@@ -16282,11 +15688,10 @@
         <v>1.900227926671505E-2</v>
       </c>
       <c r="D596">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E596">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16301,11 +15706,10 @@
         <v>0.21716505289077759</v>
       </c>
       <c r="D597">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E597">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16320,11 +15724,10 @@
         <v>1.5733284875750542E-2</v>
       </c>
       <c r="D598">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E598">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16339,11 +15742,10 @@
         <v>0.98535406589508057</v>
       </c>
       <c r="D599">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E599">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -16358,11 +15760,10 @@
         <v>5.0446975976228707E-2</v>
       </c>
       <c r="D600">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E600">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16377,11 +15778,10 @@
         <v>0.98530513048171997</v>
       </c>
       <c r="D601">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E601">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -16396,11 +15796,10 @@
         <v>1.6020674258470539E-2</v>
       </c>
       <c r="D602">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E602">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16415,11 +15814,10 @@
         <v>1.639984734356403E-2</v>
       </c>
       <c r="D603">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E603">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16434,11 +15832,10 @@
         <v>1.5329945832490919E-2</v>
       </c>
       <c r="D604">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E604">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16453,11 +15850,10 @@
         <v>1.3814639300107959E-2</v>
       </c>
       <c r="D605">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E605">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16472,11 +15868,10 @@
         <v>1.3615564443171021E-2</v>
       </c>
       <c r="D606">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E606">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16491,11 +15886,10 @@
         <v>1.4816920273005961E-2</v>
       </c>
       <c r="D607">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E607">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16510,11 +15904,10 @@
         <v>0.97208762168884277</v>
       </c>
       <c r="D608">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E608">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F608">
@@ -16532,11 +15925,10 @@
         <v>1.398476958274841E-2</v>
       </c>
       <c r="D609">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E609">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16551,11 +15943,10 @@
         <v>1.3906288892030719E-2</v>
       </c>
       <c r="D610">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E610">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16570,11 +15961,10 @@
         <v>1.4358042739331721E-2</v>
       </c>
       <c r="D611">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E611">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16589,11 +15979,10 @@
         <v>1.3738824985921379E-2</v>
       </c>
       <c r="D612">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E612">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16608,11 +15997,10 @@
         <v>1.388532109558582E-2</v>
       </c>
       <c r="D613">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E613">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16627,11 +16015,10 @@
         <v>1.372285559773445E-2</v>
       </c>
       <c r="D614">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E614">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16646,11 +16033,10 @@
         <v>1.38779254630208E-2</v>
       </c>
       <c r="D615">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E615">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16665,11 +16051,10 @@
         <v>1.3828371651470659E-2</v>
       </c>
       <c r="D616">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E616">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16684,11 +16069,10 @@
         <v>0.98510104417800903</v>
       </c>
       <c r="D617">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E617">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F617">
@@ -16706,11 +16090,10 @@
         <v>0.7263343334197998</v>
       </c>
       <c r="D618">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E618">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F618">
@@ -16728,11 +16111,10 @@
         <v>0.98331326246261597</v>
       </c>
       <c r="D619">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E619">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F619">
@@ -16750,11 +16132,10 @@
         <v>1.4321365393698221E-2</v>
       </c>
       <c r="D620">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E620">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16769,11 +16150,10 @@
         <v>0.30885663628578192</v>
       </c>
       <c r="D621">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E621">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16788,11 +16168,10 @@
         <v>1.394651364535093E-2</v>
       </c>
       <c r="D622">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E622">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16807,11 +16186,10 @@
         <v>1.3835735619068149E-2</v>
       </c>
       <c r="D623">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E623">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16826,11 +16204,10 @@
         <v>1.8390130251646038E-2</v>
       </c>
       <c r="D624">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E624">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16845,11 +16222,10 @@
         <v>1.389764063060284E-2</v>
       </c>
       <c r="D625">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E625">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16864,11 +16240,10 @@
         <v>1.3676587492227551E-2</v>
       </c>
       <c r="D626">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E626">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16883,11 +16258,10 @@
         <v>4.5962169766426093E-2</v>
       </c>
       <c r="D627">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E627">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16902,11 +16276,10 @@
         <v>0.97455614805221558</v>
       </c>
       <c r="D628">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E628">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -16921,11 +16294,10 @@
         <v>4.3327931314706802E-2</v>
       </c>
       <c r="D629">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E629">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16940,11 +16312,10 @@
         <v>9.9884718656539917E-2</v>
       </c>
       <c r="D630">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E630">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16959,11 +16330,10 @@
         <v>1.4411206357181071E-2</v>
       </c>
       <c r="D631">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E631">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16978,11 +16348,10 @@
         <v>1.40665965154767E-2</v>
       </c>
       <c r="D632">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E632">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16997,11 +16366,10 @@
         <v>1.5006766654551029E-2</v>
       </c>
       <c r="D633">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E633">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17016,11 +16384,10 @@
         <v>3.7941243499517441E-2</v>
       </c>
       <c r="D634">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E634">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17035,11 +16402,10 @@
         <v>1.372708939015865E-2</v>
       </c>
       <c r="D635">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E635">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17054,11 +16420,10 @@
         <v>1.560073811560869E-2</v>
       </c>
       <c r="D636">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E636">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17073,11 +16438,10 @@
         <v>1.3719784095883369E-2</v>
       </c>
       <c r="D637">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E637">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17092,11 +16456,10 @@
         <v>1.449315622448921E-2</v>
       </c>
       <c r="D638">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E638">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17111,11 +16474,10 @@
         <v>2.1163346245884899E-2</v>
       </c>
       <c r="D639">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E639">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17130,11 +16492,10 @@
         <v>1.4129141345620161E-2</v>
       </c>
       <c r="D640">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E640">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17149,11 +16510,10 @@
         <v>1.3606037944555281E-2</v>
       </c>
       <c r="D641">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E641">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17168,11 +16528,10 @@
         <v>0.77102863788604736</v>
       </c>
       <c r="D642">
-        <f t="shared" ref="D642:D705" si="20">IF(C642&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D642:D705" si="10">IF(C642&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E642">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F642">
@@ -17190,11 +16549,10 @@
         <v>1.367488224059343E-2</v>
       </c>
       <c r="D643">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E643">
-        <f t="shared" ref="E643:E706" si="21">IF(ISBLANK(F643),D643,F643)</f>
         <v>0</v>
       </c>
     </row>
@@ -17209,11 +16567,10 @@
         <v>1.7527177929878231E-2</v>
       </c>
       <c r="D644">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E644">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17228,11 +16585,10 @@
         <v>1.3937892392277719E-2</v>
       </c>
       <c r="D645">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E645">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17247,11 +16603,10 @@
         <v>1.36896762996912E-2</v>
       </c>
       <c r="D646">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E646">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17266,11 +16621,10 @@
         <v>1.3712558895349501E-2</v>
       </c>
       <c r="D647">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E647">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17285,11 +16639,10 @@
         <v>1.414779108017683E-2</v>
       </c>
       <c r="D648">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E648">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17304,11 +16657,10 @@
         <v>0.14785914123058319</v>
       </c>
       <c r="D649">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E649">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17323,11 +16675,10 @@
         <v>0.98548257350921631</v>
       </c>
       <c r="D650">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E650">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -17342,11 +16693,10 @@
         <v>1.4028436504304411E-2</v>
       </c>
       <c r="D651">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E651">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17361,11 +16711,10 @@
         <v>1.475717779248953E-2</v>
       </c>
       <c r="D652">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E652">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17380,11 +16729,10 @@
         <v>1.5186488628387449E-2</v>
       </c>
       <c r="D653">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E653">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17399,11 +16747,10 @@
         <v>1.364056766033173E-2</v>
       </c>
       <c r="D654">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E654">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17418,11 +16765,10 @@
         <v>1.3713499531149861E-2</v>
       </c>
       <c r="D655">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E655">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17437,11 +16783,10 @@
         <v>1.397614553570747E-2</v>
       </c>
       <c r="D656">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E656">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17456,11 +16801,10 @@
         <v>1.5186488628387449E-2</v>
       </c>
       <c r="D657">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E657">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17475,11 +16819,10 @@
         <v>1.363420020788908E-2</v>
       </c>
       <c r="D658">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E658">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17494,11 +16837,10 @@
         <v>1.4374402351677419E-2</v>
       </c>
       <c r="D659">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E659">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17513,11 +16855,10 @@
         <v>1.3696961104869841E-2</v>
       </c>
       <c r="D660">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E660">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17532,11 +16873,10 @@
         <v>1.568645611405373E-2</v>
       </c>
       <c r="D661">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E661">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17551,11 +16891,10 @@
         <v>1.39454510062933E-2</v>
       </c>
       <c r="D662">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E662">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17570,11 +16909,10 @@
         <v>1.383719965815544E-2</v>
       </c>
       <c r="D663">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E663">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17589,11 +16927,10 @@
         <v>3.5084359347820282E-2</v>
       </c>
       <c r="D664">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E664">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17608,11 +16945,10 @@
         <v>2.894528582692146E-2</v>
       </c>
       <c r="D665">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E665">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17627,11 +16963,10 @@
         <v>3.7253517657518387E-2</v>
       </c>
       <c r="D666">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E666">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17646,11 +16981,10 @@
         <v>0.2174787521362305</v>
       </c>
       <c r="D667">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E667">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17665,11 +16999,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D668">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E668">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17684,11 +17017,10 @@
         <v>1.376738026738167E-2</v>
       </c>
       <c r="D669">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E669">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17703,11 +17035,10 @@
         <v>1.389261614531279E-2</v>
       </c>
       <c r="D670">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E670">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17722,11 +17053,10 @@
         <v>1.392502244561911E-2</v>
       </c>
       <c r="D671">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E671">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17741,11 +17071,10 @@
         <v>1.3595513999462129E-2</v>
       </c>
       <c r="D672">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E672">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17760,11 +17089,10 @@
         <v>1.401606202125549E-2</v>
       </c>
       <c r="D673">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E673">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17779,11 +17107,10 @@
         <v>1.374423410743475E-2</v>
       </c>
       <c r="D674">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E674">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17798,11 +17125,10 @@
         <v>1.4090257696807379E-2</v>
       </c>
       <c r="D675">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E675">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17817,11 +17143,10 @@
         <v>1.361616514623165E-2</v>
       </c>
       <c r="D676">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E676">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17836,11 +17161,10 @@
         <v>1.4090257696807379E-2</v>
       </c>
       <c r="D677">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E677">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17855,11 +17179,10 @@
         <v>1.3733625411987299E-2</v>
       </c>
       <c r="D678">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E678">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17874,11 +17197,10 @@
         <v>1.368824858218431E-2</v>
       </c>
       <c r="D679">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E679">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17893,11 +17215,10 @@
         <v>1.376042794436216E-2</v>
       </c>
       <c r="D680">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E680">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17912,11 +17233,10 @@
         <v>0.58988255262374878</v>
       </c>
       <c r="D681">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E681">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F681">
@@ -17934,11 +17254,10 @@
         <v>1.4079735614359381E-2</v>
       </c>
       <c r="D682">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E682">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17953,11 +17272,10 @@
         <v>1.389996614307165E-2</v>
       </c>
       <c r="D683">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E683">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17972,11 +17290,10 @@
         <v>1.4813766814768309E-2</v>
       </c>
       <c r="D684">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E684">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17991,11 +17308,10 @@
         <v>1.4231620356440541E-2</v>
       </c>
       <c r="D685">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E685">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18010,11 +17326,10 @@
         <v>0.98547977209091187</v>
       </c>
       <c r="D686">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E686">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18029,11 +17344,10 @@
         <v>0.98548084497451782</v>
       </c>
       <c r="D687">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E687">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18048,11 +17362,10 @@
         <v>1.3808597810566431E-2</v>
       </c>
       <c r="D688">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E688">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18067,11 +17380,10 @@
         <v>1.370281167328358E-2</v>
       </c>
       <c r="D689">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E689">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18086,11 +17398,10 @@
         <v>1.5397347509860991E-2</v>
       </c>
       <c r="D690">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E690">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18105,11 +17416,10 @@
         <v>1.3619061559438711E-2</v>
       </c>
       <c r="D691">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E691">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18124,11 +17434,10 @@
         <v>1.41184376552701E-2</v>
       </c>
       <c r="D692">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E692">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18143,11 +17452,10 @@
         <v>0.98546552658081055</v>
       </c>
       <c r="D693">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E693">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18162,11 +17470,10 @@
         <v>1.3784897513687611E-2</v>
       </c>
       <c r="D694">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E694">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18181,11 +17488,10 @@
         <v>1.389554981142282E-2</v>
       </c>
       <c r="D695">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E695">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18200,11 +17506,10 @@
         <v>1.3754093088209631E-2</v>
       </c>
       <c r="D696">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E696">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18219,11 +17524,10 @@
         <v>1.6230266541242599E-2</v>
       </c>
       <c r="D697">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E697">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18238,11 +17542,10 @@
         <v>1.4759146608412269E-2</v>
       </c>
       <c r="D698">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E698">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18257,11 +17560,10 @@
         <v>1.484162174165249E-2</v>
       </c>
       <c r="D699">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E699">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18276,11 +17578,10 @@
         <v>1.3644528575241569E-2</v>
       </c>
       <c r="D700">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E700">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18295,11 +17596,10 @@
         <v>0.98541343212127686</v>
       </c>
       <c r="D701">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E701">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18314,11 +17614,10 @@
         <v>3.1321045011281967E-2</v>
       </c>
       <c r="D702">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E702">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18333,11 +17632,10 @@
         <v>1.364240422844887E-2</v>
       </c>
       <c r="D703">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E703">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18352,11 +17650,10 @@
         <v>0.98537594079971313</v>
       </c>
       <c r="D704">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E704">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18371,11 +17668,10 @@
         <v>1.3906523585319521E-2</v>
       </c>
       <c r="D705">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E705">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18390,11 +17686,10 @@
         <v>0.98025423288345337</v>
       </c>
       <c r="D706">
-        <f t="shared" ref="D706:D720" si="22">IF(C706&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D706:D720" si="11">IF(C706&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E706">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F706">
@@ -18412,11 +17707,10 @@
         <v>1.4767664484679701E-2</v>
       </c>
       <c r="D707">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E707">
-        <f t="shared" ref="E707:E720" si="23">IF(ISBLANK(F707),D707,F707)</f>
         <v>0</v>
       </c>
     </row>
@@ -18431,11 +17725,10 @@
         <v>0.98518478870391846</v>
       </c>
       <c r="D708">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E708">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -18450,11 +17743,10 @@
         <v>1.4132740907371041E-2</v>
       </c>
       <c r="D709">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E709">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18469,11 +17761,10 @@
         <v>0.9854246973991394</v>
       </c>
       <c r="D710">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E710">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F710">
@@ -18491,11 +17782,10 @@
         <v>2.250722236931324E-2</v>
       </c>
       <c r="D711">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E711">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18510,11 +17800,10 @@
         <v>0.98546868562698364</v>
       </c>
       <c r="D712">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E712">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -18529,11 +17818,10 @@
         <v>1.3760958798229689E-2</v>
       </c>
       <c r="D713">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E713">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18548,11 +17836,10 @@
         <v>1.360605750232935E-2</v>
       </c>
       <c r="D714">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E714">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18567,11 +17854,10 @@
         <v>1.3719937764108179E-2</v>
       </c>
       <c r="D715">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E715">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18586,11 +17872,10 @@
         <v>1.385272014886141E-2</v>
       </c>
       <c r="D716">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E716">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18605,11 +17890,10 @@
         <v>1.414102222770452E-2</v>
       </c>
       <c r="D717">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E717">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18624,11 +17908,10 @@
         <v>1.685151644051075E-2</v>
       </c>
       <c r="D718">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E718">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18643,11 +17926,10 @@
         <v>0.98546576499938965</v>
       </c>
       <c r="D719">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E719">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -18662,11 +17944,10 @@
         <v>0.98547518253326416</v>
       </c>
       <c r="D720">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E720">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F720">
